--- a/medicine/Mort/Cimetière_de_Park_Street/Cimetière_de_Park_Street.xlsx
+++ b/medicine/Mort/Cimetière_de_Park_Street/Cimetière_de_Park_Street.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Park_Street</t>
+          <t>Cimetière_de_Park_Street</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Park Street (ou South Park Street Cemetery) de Calcutta (Inde) est un cimetière chrétien datant du XVIIIe siècle. Classé comme site protégé par l’Archaeological Survey of India [ASI], il est aujourd’hui un parc public.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Park_Street</t>
+          <t>Cimetière_de_Park_Street</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quatre cimetières
-La ville de Calcutta se développant rapidement, il est décidé de cesser toute inhumation autour de l’église Saint Jean, près de Dalhousie square, dans le centre historique de la ville. Pas moins de quatre cimetières sont ouverts, durant la seconde moitié du XVIIIe siècle le long d'un chemin qui quitte la ville vers un terrain marécageux et qui s'appelle, tout naturellement « rue du cimetière » (Burial ground road) avant de devenir plus tard la « rue du Parc » (Park Street) car le chief justice du Bengale, Elijah Impey (en) y possédait un parc à gibier. Trois des quatre cimetières ont disparu.
+          <t>Quatre cimetières</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La ville de Calcutta se développant rapidement, il est décidé de cesser toute inhumation autour de l’église Saint Jean, près de Dalhousie square, dans le centre historique de la ville. Pas moins de quatre cimetières sont ouverts, durant la seconde moitié du XVIIIe siècle le long d'un chemin qui quitte la ville vers un terrain marécageux et qui s'appelle, tout naturellement « rue du cimetière » (Burial ground road) avant de devenir plus tard la « rue du Parc » (Park Street) car le chief justice du Bengale, Elijah Impey (en) y possédait un parc à gibier. Trois des quatre cimetières ont disparu.
 Un premier cimetière est ouvert en 1767 à l’extrémité de ce chemin, au sud de la ville. Connu comme South Park Street Cemetery il est le seul à avoir survécu et est devenu aujourd'hui parc public. C'est celui dont il est question dans cet article.
 Un deuxième cimetière, sur le côté gauche de la rue est ouvert en 1773, qui s'appelait Mission cemetery. Il avait des liens avec l'église de l'ancienne Mission. La tombe de John Z. Kiernander, fondateur et premier pasteur de l'église, et des membres de sa famille, s'y trouvait. Le cimetière a disparu.
 Un troisième cimetière est ouvert en 1786, pour la communauté française de Calcutta, qui s'appelait Tiretta's Cemetery, du nom de celui qui en était le propriétaire. Parmi les tombes se trouvaient celles d'Angélique, fille du comte de Carrion (morte en 1796) et de la vicomtesse Adeline de Facier, femme d'un officier et noble français à la cour de Ranjit Singh, dirigeant sikh. Ce cimetière a également disparu.
-le quatrième cimetière fut ouvert en 1791, juste à côté du Mission cemetery. On l'appelait North Park Street Cemetery. Y furent enterrés le père du célèbre romancier Thackeray, Richmond Thackeray, le lieutenant-colonel Achilles Kirkpatrick, et d'autres. Le cimetière a disparu.
-Le South Park Street Cemetery
-Pour des raisons d’hygiène les enterrements ont lieu après le coucher de soleil. Les convois funéraires sont accompagnés de torches, le cercueil étant porté sur les épaules par les amis du défunt. Le plus ancien monument funéraire (de Sarah Pearson) porte la date du 8 septembre 1768. Le cimetière  se remplit rapidement d’autant plus que sarcophages et mausolées funéraires sont de très grande dimension. Aussi d'autres cimetières (aujourd’hui disparus) sont ouverts, des deux côtés de la Burial ground road.
-Durant plusieurs années les quatre cimetières sont utilisés concurremment. Dans celui du sud, les derniers sépulcres sont érigés en 1830. Il est alors fermé. Son aspect n’a pratiquement pas changé depuis lors. L’architecture des monuments funéraires — certains sont des mausolées grandioses et extravagants — rappelle le néo-classicisme européen du début du XVIIIe siècle : urnes grecques, obélisques et pyramides égyptiennes, colonnes et coupoles romaines ornent sépulcres et immenses caveaux : une vraie nécropole. Des tablettes aux inscriptions romantiques à la gloire et l’honneur des défunts (dont la moyenne d’âge tourne autour de 40 ans), et célébrant leurs sublimes vertus, enjolivent plusieurs de ces monuments.   
-</t>
+le quatrième cimetière fut ouvert en 1791, juste à côté du Mission cemetery. On l'appelait North Park Street Cemetery. Y furent enterrés le père du célèbre romancier Thackeray, Richmond Thackeray, le lieutenant-colonel Achilles Kirkpatrick, et d'autres. Le cimetière a disparu.</t>
         </is>
       </c>
     </row>
@@ -532,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Park_Street</t>
+          <t>Cimetière_de_Park_Street</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +560,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le South Park Street Cemetery</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour des raisons d’hygiène les enterrements ont lieu après le coucher de soleil. Les convois funéraires sont accompagnés de torches, le cercueil étant porté sur les épaules par les amis du défunt. Le plus ancien monument funéraire (de Sarah Pearson) porte la date du 8 septembre 1768. Le cimetière  se remplit rapidement d’autant plus que sarcophages et mausolées funéraires sont de très grande dimension. Aussi d'autres cimetières (aujourd’hui disparus) sont ouverts, des deux côtés de la Burial ground road.
+Durant plusieurs années les quatre cimetières sont utilisés concurremment. Dans celui du sud, les derniers sépulcres sont érigés en 1830. Il est alors fermé. Son aspect n’a pratiquement pas changé depuis lors. L’architecture des monuments funéraires — certains sont des mausolées grandioses et extravagants — rappelle le néo-classicisme européen du début du XVIIIe siècle : urnes grecques, obélisques et pyramides égyptiennes, colonnes et coupoles romaines ornent sépulcres et immenses caveaux : une vraie nécropole. Des tablettes aux inscriptions romantiques à la gloire et l’honneur des défunts (dont la moyenne d’âge tourne autour de 40 ans), et célébrant leurs sublimes vertus, enjolivent plusieurs de ces monuments.   
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Park_Street</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Park_Street</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le cimetière est la mémoire historique d’une ville qui, en un peu plus de deux siècles, est devenue la seconde ville de l’empire britannique. Beaucoup de ceux qui eurent un rôle de première importance dans cet essor de Calcutta sont enterrés au cimetière de Park Street. Parmi eux : 
 George Bogle (1746-1781), aventurier et diplomate britannique.
@@ -569,44 +622,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_de_Park_Street</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Park_Street</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Aujourd’hui</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des années de quasi abandon, le cimetière est restauré et rénové une première fois en 1978. L’Association for the preservation of historical cemeteries in India [APHCI] en a fait depuis lors un recensement complet identifiant les tombeaux, l’entretenant régulièrement, veillant à sa protection et en cherchant des mécènes, tout en le transformant en espace vert. De plus en plus nombreux sont les visiteurs d’outremer qui y cherchent les traces d’ancêtres enterrés au cimetière. L’APHCI est soutenue par la ‘British Association for Cemeteries in South Asia’ [BACSA].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Park_Street</t>
+          <t>Cimetière_de_Park_Street</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,10 +643,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aujourd’hui</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des années de quasi abandon, le cimetière est restauré et rénové une première fois en 1978. L’Association for the preservation of historical cemeteries in India [APHCI] en a fait depuis lors un recensement complet identifiant les tombeaux, l’entretenant régulièrement, veillant à sa protection et en cherchant des mécènes, tout en le transformant en espace vert. De plus en plus nombreux sont les visiteurs d’outremer qui y cherchent les traces d’ancêtres enterrés au cimetière. L’APHCI est soutenue par la ‘British Association for Cemeteries in South Asia’ [BACSA].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Park_Street</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Park_Street</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>The South Park Street cemetery, Calcutta, 2009.</t>
         </is>
